--- a/fhir/ig/urgencia/StructureDefinition-encounter-categorizacion.xlsx
+++ b/fhir/ig/urgencia/StructureDefinition-encounter-categorizacion.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3106" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3102" uniqueCount="508">
   <si>
     <t>Property</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Encounter Categorización</t>
+    <t>Encuentro Categorización</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-27T17:49:18-04:00</t>
+    <t>2024-08-29T09:57:29-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -90,7 +90,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Registro de un encuentro de categorización de un paciente en un servicio de urgencia.</t>
+    <t>Registro de un encuentro de categorización de un paciente en un servicio de urgencia de un establecimiento de salud.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -120,7 +120,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Encounter</t>
+    <t>https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/EncounterCL</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -479,10 +479,10 @@
 </t>
   </si>
   <si>
-    <t>Identifier(s) by which this encounter is known</t>
-  </si>
-  <si>
-    <t>Identifier(s) by which this encounter is known.</t>
+    <t>Identificador(es) por los que se conoce este encuentro</t>
+  </si>
+  <si>
+    <t>Es el número de identificación del encuentro realizado</t>
   </si>
   <si>
     <t>Event.identifier</t>
@@ -500,10 +500,10 @@
     <t>Encounter.status</t>
   </si>
   <si>
-    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +</t>
-  </si>
-  <si>
-    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +.</t>
+    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled</t>
+  </si>
+  <si>
+    <t>Determina el estado del encuentro remoto conforme a los códigos definidos por el estándar</t>
   </si>
   <si>
     <t>Note that internal business rules will determine the appropriate transitions that may occur between statuses (and also classes).</t>
@@ -515,10 +515,10 @@
     <t>required</t>
   </si>
   <si>
-    <t>Current state of the encounter.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-status|4.0.1</t>
+    <t>Códigos requeridos por FHIR</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/encounter-status</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -597,6 +597,18 @@
     <t>Encounter.statusHistory.status</t>
   </si>
   <si>
+    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +</t>
+  </si>
+  <si>
+    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +.</t>
+  </si>
+  <si>
+    <t>Current state of the encounter.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/encounter-status|4.0.1</t>
+  </si>
+  <si>
     <t>Encounter.statusHistory.period</t>
   </si>
   <si>
@@ -617,10 +629,7 @@
 </t>
   </si>
   <si>
-    <t>Classification of patient encounter</t>
-  </si>
-  <si>
-    <t>Concepts representing classification of patient encounter such as ambulatory (outpatient), inpatient, emergency, home health or others due to local variations.</t>
+    <t>Clasificación del encuentro con el paciente</t>
   </si>
   <si>
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
@@ -632,46 +641,49 @@
     <t>extensible</t>
   </si>
   <si>
+    <t>http://terminology.hl7.org/ValueSet/v3-ActCode</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=LIST].code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>PV1-2</t>
+  </si>
+  <si>
+    <t>Encounter.classHistory</t>
+  </si>
+  <si>
+    <t>List of past encounter classes</t>
+  </si>
+  <si>
+    <t>The class history permits the tracking of the encounters transitions without needing to go  through the resource history.  This would be used for a case where an admission starts of as an emergency encounter, then transitions into an inpatient scenario. Doing this and not restarting a new encounter ensures that any lab/diagnostic results can more easily follow the patient and not require re-processing and not get lost or cancelled during a kind of discharge from emergency to inpatient.</t>
+  </si>
+  <si>
+    <t>Encounter.classHistory.id</t>
+  </si>
+  <si>
+    <t>Encounter.classHistory.extension</t>
+  </si>
+  <si>
+    <t>Encounter.classHistory.modifierExtension</t>
+  </si>
+  <si>
+    <t>Encounter.classHistory.class</t>
+  </si>
+  <si>
+    <t>inpatient | outpatient | ambulatory | emergency +</t>
+  </si>
+  <si>
+    <t>inpatient | outpatient | ambulatory | emergency +.</t>
+  </si>
+  <si>
     <t>Classification of the encounter.</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v3-ActEncounterCode</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=SUBJ].source[classCode=LIST].code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>PV1-2</t>
-  </si>
-  <si>
-    <t>Encounter.classHistory</t>
-  </si>
-  <si>
-    <t>List of past encounter classes</t>
-  </si>
-  <si>
-    <t>The class history permits the tracking of the encounters transitions without needing to go  through the resource history.  This would be used for a case where an admission starts of as an emergency encounter, then transitions into an inpatient scenario. Doing this and not restarting a new encounter ensures that any lab/diagnostic results can more easily follow the patient and not require re-processing and not get lost or cancelled during a kind of discharge from emergency to inpatient.</t>
-  </si>
-  <si>
-    <t>Encounter.classHistory.id</t>
-  </si>
-  <si>
-    <t>Encounter.classHistory.extension</t>
-  </si>
-  <si>
-    <t>Encounter.classHistory.modifierExtension</t>
-  </si>
-  <si>
-    <t>Encounter.classHistory.class</t>
-  </si>
-  <si>
-    <t>inpatient | outpatient | ambulatory | emergency +</t>
-  </si>
-  <si>
-    <t>inpatient | outpatient | ambulatory | emergency +.</t>
   </si>
   <si>
     <t>Encounter.classHistory.period</t>
@@ -690,10 +702,10 @@
 </t>
   </si>
   <si>
-    <t>Specific type of encounter</t>
-  </si>
-  <si>
-    <t>Specific type of encounter (e.g. e-mail consultation, surgical day-care, skilled nursing, rehabilitation).</t>
+    <t>Tipo específico de Encuentro</t>
+  </si>
+  <si>
+    <t>Específica el tipo de encuentro</t>
   </si>
   <si>
     <t>Since there are many ways to further classify encounters, this element is 0..*.</t>
@@ -702,10 +714,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>The type of encounter.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-type</t>
+    <t>https://hl7chile.cl/fhir/ig/clcore/ValueSet/VSTiposEncuentroCL</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -731,10 +740,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>Broad categorization of the service that is to be provided.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/service-type</t>
+    <t>https://hl7chile.cl/fhir/ig/clcore/ValueSet/VSTiposServicio</t>
   </si>
   <si>
     <t>PV1-10</t>
@@ -775,7 +781,7 @@
     <t>Paciente</t>
   </si>
   <si>
-    <t>The patient or group present at the encounter.</t>
+    <t>La referencia al paciente que está presente en el encuentro clínico sobre un paciente nacional.</t>
   </si>
   <si>
     <t>While the encounter is always about the patient, the patient might not actually be known in all contexts of use, and there may be a group of patients that could be anonymous (such as in a group therapy for Alcoholics Anonymous - where the recording of the encounter could be used for billing on the number of people/staff and not important to the context of the specific patients) or alternately in veterinary care a herd of sheep receiving treatment (where the animals are not individually tracked).</t>
@@ -796,14 +802,14 @@
     <t>Encounter.episodeOfCare</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(EpisodeOfCare)
+    <t xml:space="preserve">Reference(http://proceso-urgencia.minsal.cl/StructureDefinition/episodio-urgencia)
 </t>
   </si>
   <si>
-    <t>Episode(s) of care that this encounter should be recorded against</t>
-  </si>
-  <si>
-    <t>Where a specific encounter should be classified as a part of a specific episode(s) of care this field should be used. This association can facilitate grouping of related encounters together for a specific purpose, such as government reporting, issue tracking, association via a common problem.  The association is recorded on the encounter as these are typically created after the episode of care and grouped on entry rather than editing the episode of care to append another encounter to it (the episode of care could span years).</t>
+    <t>Episodio de atención de urgencia</t>
+  </si>
+  <si>
+    <t>El episodio de atención de urgencia al que pertenece el encuentro</t>
   </si>
   <si>
     <t>Event.context</t>
@@ -841,7 +847,7 @@
     <t>Encounter.participant</t>
   </si>
   <si>
-    <t>List of participants involved in the encounter</t>
+    <t>Participantes involucrados en el encuentro sin considerar al paciente</t>
   </si>
   <si>
     <t>The list of people responsible for providing the service.</t>
@@ -875,7 +881,7 @@
     <t>Encounter.participant.type</t>
   </si>
   <si>
-    <t>Role of participant in encounter</t>
+    <t>Rol del participante en el encuentro</t>
   </si>
   <si>
     <t>Role of participant in encounter.</t>
@@ -914,11 +920,11 @@
     <t>Encounter.participant.individual</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|RelatedPerson)
+    <t xml:space="preserve">Reference(https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CorePrestadorCl|https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CoreRolClinicoCl|RelatedPerson)
 </t>
   </si>
   <si>
-    <t>Persons involved in the encounter other than the patient</t>
+    <t>Referencia al participante</t>
   </si>
   <si>
     <t>Persons involved in the encounter other than the patient.</t>
@@ -974,7 +980,7 @@
     <t>Título profesional del categorizador</t>
   </si>
   <si>
-    <t>Profesión del profesional de la salud que categoriza al paciente</t>
+    <t>Extensión que registra el título del profesional de la salud que categoriza al paciente</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -1011,10 +1017,10 @@
 </t>
   </si>
   <si>
-    <t>The appointment that scheduled this encounter</t>
-  </si>
-  <si>
-    <t>The appointment that scheduled this encounter.</t>
+    <t>Reserva de un evento de atención médica entre paciente(s), profesional(es), persona(s) relacionada(s) y/o dispositivo(s)</t>
+  </si>
+  <si>
+    <t>Cita o agendamiento médico, la cual es resultado de un encuentro</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=FLFS].target[classCode=ENC, moodCode=APT]</t>
@@ -1029,7 +1035,7 @@
     <t>Fecha y hora de la categorización</t>
   </si>
   <si>
-    <t>The start and end time of the encounter.</t>
+    <t>La hora de inicio y finalización del encuentro</t>
   </si>
   <si>
     <t>If not (yet) known, the end of the Period may be omitted.</t>
@@ -1088,7 +1094,7 @@
     <t>Encounter.period.end</t>
   </si>
   <si>
-    <t>End time with inclusive boundary, if not ongoing</t>
+    <t>Hora de finalización</t>
   </si>
   <si>
     <t>The end of the period. If the end of the period is missing, it means no end was known or planned at the time the instance was created. The start may be in the past, and the end date in the future, which means that period is expected/planned to end at that time.</t>
@@ -1116,10 +1122,7 @@
 </t>
   </si>
   <si>
-    <t>Quantity of time the encounter lasted (less time absent)</t>
-  </si>
-  <si>
-    <t>Quantity of time the encounter lasted. This excludes the time during leaves of absence.</t>
+    <t>Cantidad de tiempo que duró el encuentro (menos tiempo ausente)</t>
   </si>
   <si>
     <t>May differ from the time the Encounter.period lasted because of leave of absence.</t>
@@ -1138,10 +1141,7 @@
 Admission diagnosis</t>
   </si>
   <si>
-    <t>Coded reason the encounter takes place</t>
-  </si>
-  <si>
-    <t>Reason the encounter takes place, expressed as a code. For admissions, this can be used for a coded admission diagnosis.</t>
+    <t>Razón codificada por la que tiene lugar el Encuentro</t>
   </si>
   <si>
     <t>For systems that need to know which was the primary diagnosis, these will be marked with the standard extension primaryDiagnosis (which is a sequence value rather than a flag, 1 = primary diagnosis).</t>
@@ -1175,13 +1175,13 @@
     <t>Reason the encounter takes place (reference)</t>
   </si>
   <si>
+    <t>Reason the encounter takes place, expressed as a code. For admissions, this can be used for a coded admission diagnosis.</t>
+  </si>
+  <si>
     <t>Encounter.diagnosis</t>
   </si>
   <si>
-    <t>The list of diagnosis relevant to this encounter</t>
-  </si>
-  <si>
-    <t>The list of diagnosis relevant to this encounter.</t>
+    <t>Diagnóstico relevante para este encuentro</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=RSON]</t>
@@ -1203,11 +1203,11 @@
 discharge diagnosisindication</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Procedure)
+    <t xml:space="preserve">Reference(https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CoreDiagnosticoCl)
 </t>
   </si>
   <si>
-    <t>The diagnosis or procedure relevant to the encounter</t>
+    <t>El diagnóstico o procedimiento relevante para el encuentro</t>
   </si>
   <si>
     <t>Reason the encounter takes place, as specified using information from another resource. For admissions, this is the admission diagnosis. The indication will typically be a Condition (with other resources referenced in the evidence.detail), or a Procedure.</t>
@@ -1960,7 +1960,7 @@
     <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="89.8203125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="149.87890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3156,7 +3156,7 @@
         <v>81</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>22</v>
@@ -3268,7 +3268,7 @@
         <v>89</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>90</v>
@@ -3850,10 +3850,10 @@
         <v>109</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3883,10 +3883,10 @@
         <v>159</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>22</v>
@@ -3933,10 +3933,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3959,13 +3959,13 @@
         <v>22</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4016,7 +4016,7 @@
         <v>22</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>89</v>
@@ -4045,10 +4045,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4062,7 +4062,7 @@
         <v>89</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>22</v>
@@ -4071,13 +4071,13 @@
         <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4089,46 +4089,44 @@
         <v>22</v>
       </c>
       <c r="S19" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="Y19" s="2"/>
+      <c r="Z19" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="T19" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>89</v>
@@ -4146,21 +4144,21 @@
         <v>22</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4186,10 +4184,10 @@
         <v>167</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4240,7 +4238,7 @@
         <v>22</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4269,10 +4267,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4381,10 +4379,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4495,10 +4493,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4611,10 +4609,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4637,13 +4635,13 @@
         <v>22</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4670,13 +4668,13 @@
         <v>22</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>22</v>
@@ -4694,7 +4692,7 @@
         <v>22</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>89</v>
@@ -4723,10 +4721,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4749,13 +4747,13 @@
         <v>22</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4806,7 +4804,7 @@
         <v>22</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>89</v>
@@ -4835,10 +4833,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4852,7 +4850,7 @@
         <v>81</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>22</v>
@@ -4861,16 +4859,16 @@
         <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4896,13 +4894,11 @@
         <v>22</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>22</v>
@@ -4920,7 +4916,7 @@
         <v>22</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -4935,24 +4931,24 @@
         <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4975,13 +4971,13 @@
         <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4993,7 +4989,7 @@
         <v>22</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>22</v>
@@ -5008,31 +5004,29 @@
         <v>22</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="Y27" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="Y27" s="2"/>
+      <c r="Z27" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF27" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5047,7 +5041,7 @@
         <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>171</v>
@@ -5056,15 +5050,15 @@
         <v>22</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5087,13 +5081,13 @@
         <v>22</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5120,31 +5114,31 @@
         <v>22</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Y28" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5162,25 +5156,25 @@
         <v>22</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5199,16 +5193,16 @@
         <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5258,7 +5252,7 @@
         <v>22</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5273,24 +5267,24 @@
         <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5298,13 +5292,13 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>22</v>
@@ -5313,13 +5307,13 @@
         <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5370,7 +5364,7 @@
         <v>22</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5385,28 +5379,28 @@
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>171</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5425,13 +5419,13 @@
         <v>22</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5482,7 +5476,7 @@
         <v>22</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5497,10 +5491,10 @@
         <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>22</v>
@@ -5511,10 +5505,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5528,7 +5522,7 @@
         <v>81</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>22</v>
@@ -5540,10 +5534,10 @@
         <v>167</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5582,17 +5576,17 @@
         <v>22</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AC32" s="2"/>
       <c r="AD32" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5607,24 +5601,24 @@
         <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5733,10 +5727,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5847,10 +5841,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5963,10 +5957,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5980,7 +5974,7 @@
         <v>81</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>22</v>
@@ -5989,16 +5983,16 @@
         <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6028,7 +6022,7 @@
       </c>
       <c r="Y36" s="2"/>
       <c r="Z36" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>22</v>
@@ -6046,7 +6040,7 @@
         <v>22</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6061,24 +6055,24 @@
         <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6101,13 +6095,13 @@
         <v>22</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6158,7 +6152,7 @@
         <v>22</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6176,21 +6170,21 @@
         <v>22</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6198,13 +6192,13 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>22</v>
@@ -6213,13 +6207,13 @@
         <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6270,7 +6264,7 @@
         <v>22</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6285,27 +6279,27 @@
         <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>22</v>
@@ -6330,10 +6324,10 @@
         <v>167</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6384,7 +6378,7 @@
         <v>22</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6399,24 +6393,24 @@
         <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6525,10 +6519,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6554,10 +6548,10 @@
         <v>135</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6596,14 +6590,14 @@
         <v>22</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AC41" s="2"/>
       <c r="AD41" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>179</v>
@@ -6635,13 +6629,13 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>22</v>
@@ -6663,13 +6657,13 @@
         <v>22</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6729,7 +6723,7 @@
         <v>81</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>140</v>
@@ -6749,10 +6743,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6865,10 +6859,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6891,16 +6885,16 @@
         <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6911,7 +6905,7 @@
         <v>22</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>22</v>
@@ -6926,31 +6920,29 @@
         <v>22</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="Y44" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="Y44" s="2"/>
+      <c r="Z44" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF44" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -6965,24 +6957,24 @@
         <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7005,13 +6997,13 @@
         <v>22</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7062,7 +7054,7 @@
         <v>22</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7080,21 +7072,21 @@
         <v>22</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7102,13 +7094,13 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>89</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>22</v>
@@ -7117,13 +7109,13 @@
         <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7174,7 +7166,7 @@
         <v>22</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7189,24 +7181,24 @@
         <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7217,10 +7209,10 @@
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>22</v>
@@ -7229,13 +7221,13 @@
         <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7286,7 +7278,7 @@
         <v>22</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7301,24 +7293,24 @@
         <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7332,7 +7324,7 @@
         <v>89</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>22</v>
@@ -7341,16 +7333,16 @@
         <v>22</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7400,7 +7392,7 @@
         <v>22</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7415,24 +7407,24 @@
         <v>101</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7541,10 +7533,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7614,16 +7606,16 @@
         <v>22</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>179</v>
@@ -7655,10 +7647,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7672,7 +7664,7 @@
         <v>89</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>22</v>
@@ -7681,16 +7673,16 @@
         <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7740,7 +7732,7 @@
         <v>22</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7749,7 +7741,7 @@
         <v>89</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>101</v>
@@ -7758,21 +7750,21 @@
         <v>22</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7786,7 +7778,7 @@
         <v>89</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>22</v>
@@ -7795,23 +7787,23 @@
         <v>90</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>22</v>
       </c>
       <c r="Q52" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="R52" t="s" s="2">
         <v>22</v>
@@ -7856,7 +7848,7 @@
         <v>22</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -7865,7 +7857,7 @@
         <v>89</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>101</v>
@@ -7874,21 +7866,21 @@
         <v>22</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7902,7 +7894,7 @@
         <v>89</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>22</v>
@@ -7911,16 +7903,16 @@
         <v>22</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7970,7 +7962,7 @@
         <v>22</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -7985,28 +7977,28 @@
         <v>101</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8016,7 +8008,7 @@
         <v>81</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>22</v>
@@ -8025,10 +8017,10 @@
         <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>357</v>
@@ -8084,7 +8076,7 @@
         <v>22</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8120,7 +8112,7 @@
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8145,7 +8137,7 @@
         <v>367</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="N55" t="s" s="2">
         <v>358</v>
@@ -8227,10 +8219,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8244,7 +8236,7 @@
         <v>81</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>22</v>
@@ -8256,7 +8248,7 @@
         <v>167</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>370</v>
@@ -8310,7 +8302,7 @@
         <v>22</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8821,7 +8813,7 @@
         <v>22</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L61" t="s" s="2">
         <v>384</v>
@@ -9839,7 +9831,7 @@
         <v>22</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L70" t="s" s="2">
         <v>417</v>
@@ -9951,7 +9943,7 @@
         <v>22</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L71" t="s" s="2">
         <v>424</v>
@@ -9984,7 +9976,7 @@
         <v>22</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Y71" t="s" s="2">
         <v>426</v>
@@ -10063,7 +10055,7 @@
         <v>22</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L72" t="s" s="2">
         <v>430</v>
@@ -10100,7 +10092,7 @@
         <v>22</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Y72" t="s" s="2">
         <v>434</v>
@@ -10179,7 +10171,7 @@
         <v>22</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L73" t="s" s="2">
         <v>439</v>
@@ -10291,7 +10283,7 @@
         <v>22</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L74" t="s" s="2">
         <v>446</v>
@@ -10515,7 +10507,7 @@
         <v>22</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L76" t="s" s="2">
         <v>458</v>
@@ -10548,7 +10540,7 @@
         <v>22</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Y76" t="s" s="2">
         <v>460</v>
@@ -11158,7 +11150,7 @@
         <v>476</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>477</v>
@@ -11309,7 +11301,7 @@
         <v>22</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L83" t="s" s="2">
         <v>487</v>
@@ -11344,7 +11336,7 @@
         <v>22</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Y83" t="s" s="2">
         <v>490</v>
@@ -11423,7 +11415,7 @@
         <v>22</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L84" t="s" s="2">
         <v>493</v>
@@ -11498,7 +11490,7 @@
         <v>22</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>22</v>
@@ -11607,7 +11599,7 @@
         <v>101</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>499</v>
